--- a/AProgZeiten.xlsx
+++ b/AProgZeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8934887f34d5755b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{F3236D8A-C930-4763-9A71-006BEEE85B3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B01AB45A-D6EC-43C6-8F3E-44B9337E0B48}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{F3236D8A-C930-4763-9A71-006BEEE85B3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{93A4789F-2027-499D-A525-022E744E1493}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{6FF661A5-013D-43AD-916B-55387E8FE1C3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>CSS Edits</t>
+  </si>
+  <si>
+    <t>Server/Shop fixes</t>
+  </si>
+  <si>
+    <t>CSS Edits/Bugfixes</t>
   </si>
 </sst>
 </file>
@@ -486,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C682BB-D5FC-4A7E-9A07-F8A5059AC2AA}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,20 +1032,34 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="2">
+        <v>43438</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -1052,15 +1072,15 @@
       </c>
       <c r="D38" s="1">
         <f>SUM(D2:D37)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E38" s="1">
         <f>SUM(E2:E37)</f>
-        <v>39.299999999999997</v>
+        <v>41.3</v>
       </c>
       <c r="F38" s="1">
         <f>SUM(F2:F37)</f>
-        <v>96.3</v>
+        <v>101.3</v>
       </c>
     </row>
   </sheetData>
